--- a/res/test2.xlsx
+++ b/res/test2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>MeerkeuzeVraag</t>
   </si>
@@ -77,7 +77,7 @@
     <t>De Java librarie heeft een aantal oplossingen voor patronen. Deze moet je kunnen gebruiken</t>
   </si>
   <si>
-    <t>Ontwerp patronen2</t>
+    <t>Ontwerp patronen</t>
   </si>
   <si>
     <t>De definitie van een ontwerp patroon moet je kunnen herkennen</t>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Converteert één interface naar een andere</t>
-  </si>
-  <si>
-    <t>Ontwerp patronen</t>
   </si>
 </sst>
 </file>
@@ -357,7 +354,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
